--- a/GeneralNotes.xlsx
+++ b/GeneralNotes.xlsx
@@ -19,12 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Topic</t>
-  </si>
-  <si>
-    <t>Immutable  classes</t>
   </si>
   <si>
     <t>Try</t>
@@ -39,18 +36,64 @@
     <t>Pros vs Cons</t>
   </si>
   <si>
-    <t>How and where</t>
-  </si>
-  <si>
     <t>Class and instance variable should be final.
 Constructors should perform deep copy.
 No setters, Getters should return a depy copy of instance variable.</t>
   </si>
   <si>
+    <t>ArrayList</t>
+  </si>
+  <si>
+    <t>HashMap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Immutable  </t>
+  </si>
+  <si>
     <t xml:space="preserve">Safe to use in cache.
 Thread Safe,state of object will remain same as nobody can change it. 
-***
+******
 Immutable classes do promote object proliferation but mutable classes create many defency copies too. </t>
+  </si>
+  <si>
+    <t>*Creates a arraylist of size 10 by default otherwise of the specified size.
+ *If the size is full while adding , the ensureCapacity() increases the size by half and copies the arraylist in the new ArrayList(Using Arrays.copyOf())
+ *trimToSize(). Shrink the capacity of this ArrayList instance to be the list’s current size.</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internally uses Array.
+Not synchronized but can get a sync list with the help of collection util.
+Best when read operation are more.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iterator </t>
+  </si>
+  <si>
+    <t>The ability to inspect the code in the system and see object types is not reflection, but rather Type Introspection. 
+Reflection is then the ability to make modifications at runtime by making use of introspection. 
+The distinction is necessary here as some languages support introspection, but do not support reflection. One such example is C++</t>
+  </si>
+  <si>
+    <t>Reflection</t>
+  </si>
+  <si>
+    <t>HashMap has an inner class called an Entry Class which holds the key and values.
+ static class Entry&lt;K,V&gt; implements Map.Entry&lt;K,V&gt; 
+ {
+     final K key;
+     V value;
+     Entry&lt;K,V&gt; next;
+     final int hash;
+ }
+**************
+put()
+ -&gt;hash(key.hashCode())
+ -&gt;indexFor() method is used to get the exact location(bucket) to store the Entry object.
+ -&gt;Objects(Entry Objects) in the bucket are linked together using the instance variable(Entry&lt;K,V&gt; next) of the Entry class.</t>
   </si>
 </sst>
 </file>
@@ -385,18 +428,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.73046875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="35.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="51.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="44.86328125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.73046875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="81.33203125" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
@@ -405,27 +448,62 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="5" spans="1:4" ht="199.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/GeneralNotes.xlsx
+++ b/GeneralNotes.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Topic</t>
   </si>
@@ -95,11 +95,14 @@
  -&gt;indexFor() method is used to get the exact location(bucket) to store the Entry object.
  -&gt;Objects(Entry Objects) in the bucket are linked together using the instance variable(Entry&lt;K,V&gt; next) of the Entry class.</t>
   </si>
+  <si>
+    <t>LinkedList</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -137,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -147,6 +150,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -427,24 +436,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.73046875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="81.33203125" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.06640625" style="2"/>
+    <col min="1" max="1" width="10.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="81.28515625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -457,8 +466,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -471,16 +480,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -490,19 +499,25 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="199.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
     </row>

--- a/GeneralNotes.xlsx
+++ b/GeneralNotes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Topic</t>
   </si>
@@ -62,12 +62,6 @@
   </si>
   <si>
     <t>Note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Internally uses Array.
-Not synchronized but can get a sync list with the help of collection util.
-Best when read operation are more.
-</t>
   </si>
   <si>
     <t xml:space="preserve">Iterator </t>
@@ -97,6 +91,16 @@
   </si>
   <si>
     <t>LinkedList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Internally uses Array.
+*Not synchronized but can get a sync list with the help of collection util.
+*Best when read operation are more.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Implements Deque,List
+</t>
   </si>
 </sst>
 </file>
@@ -437,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,7 +486,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -493,7 +497,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
@@ -504,21 +508,24 @@
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>16</v>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="1" t="s">
+    <row r="19" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>13</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
